--- a/fastexcel-test/src/test/resources/fill/dynamicColumn.xlsx
+++ b/fastexcel-test/src/test/resources/fill/dynamicColumn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>number</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>{dataList.qtyMap}</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>{dataList.priceMap.qty}</t>
   </si>
   <si>
     <t>{dataObjList.number}</t>
@@ -700,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +717,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1241,17 +1250,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1265,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1275,20 +1286,40 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fastexcel-test/src/test/resources/fill/dynamicColumn.xlsx
+++ b/fastexcel-test/src/test/resources/fill/dynamicColumn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>number</t>
   </si>
@@ -35,7 +35,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>{dateListMap.date}</t>
+    <t>{dateList.$}</t>
   </si>
   <si>
     <t>{dataList.number}</t>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>{dataList.priceMap.qty}</t>
   </si>
   <si>
     <t>{dataObjList.number}</t>
@@ -1250,19 +1247,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1276,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,25 +1288,22 @@
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="4"/>
     </row>
